--- a/Team-Data/2013-14/4-13-2013-14.xlsx
+++ b/Team-Data/2013-14/4-13-2013-14.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -744,7 +811,7 @@
         <v>-0.6</v>
       </c>
       <c r="AD2" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AE2" t="n">
         <v>18</v>
@@ -756,7 +823,7 @@
         <v>18</v>
       </c>
       <c r="AH2" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AI2" t="n">
         <v>18</v>
@@ -768,13 +835,13 @@
         <v>12</v>
       </c>
       <c r="AL2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AM2" t="n">
         <v>2</v>
       </c>
       <c r="AN2" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AO2" t="n">
         <v>19</v>
@@ -801,7 +868,7 @@
         <v>26</v>
       </c>
       <c r="AW2" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AX2" t="n">
         <v>25</v>
@@ -810,7 +877,7 @@
         <v>12</v>
       </c>
       <c r="AZ2" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="BA2" t="n">
         <v>20</v>
@@ -819,7 +886,7 @@
         <v>14</v>
       </c>
       <c r="BC2" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BD2" t="n">
         <v>10</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>4-13-2013-14</t>
+          <t>2014-04-13</t>
         </is>
       </c>
     </row>
@@ -926,22 +993,22 @@
         <v>-4.3</v>
       </c>
       <c r="AD3" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AE3" t="n">
         <v>25</v>
       </c>
       <c r="AF3" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AG3" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AH3" t="n">
         <v>28</v>
       </c>
       <c r="AI3" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AJ3" t="n">
         <v>10</v>
@@ -980,7 +1047,7 @@
         <v>23</v>
       </c>
       <c r="AV3" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AW3" t="n">
         <v>23</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>4-13-2013-14</t>
+          <t>2014-04-13</t>
         </is>
       </c>
     </row>
@@ -1030,16 +1097,16 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E4" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F4" t="n">
         <v>36</v>
       </c>
       <c r="G4" t="n">
-        <v>0.55</v>
+        <v>0.544</v>
       </c>
       <c r="H4" t="n">
         <v>48.5</v>
@@ -1057,10 +1124,10 @@
         <v>8.6</v>
       </c>
       <c r="M4" t="n">
-        <v>23.4</v>
+        <v>23.3</v>
       </c>
       <c r="N4" t="n">
-        <v>0.369</v>
+        <v>0.368</v>
       </c>
       <c r="O4" t="n">
         <v>18.4</v>
@@ -1072,31 +1139,31 @@
         <v>0.754</v>
       </c>
       <c r="R4" t="n">
-        <v>8.800000000000001</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="S4" t="n">
         <v>29.4</v>
       </c>
       <c r="T4" t="n">
-        <v>38.2</v>
+        <v>38.1</v>
       </c>
       <c r="U4" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="V4" t="n">
-        <v>14.4</v>
+        <v>14.3</v>
       </c>
       <c r="W4" t="n">
-        <v>8.6</v>
+        <v>8.5</v>
       </c>
       <c r="X4" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="Y4" t="n">
         <v>4.1</v>
       </c>
       <c r="Z4" t="n">
-        <v>21.7</v>
+        <v>21.8</v>
       </c>
       <c r="AA4" t="n">
         <v>20.7</v>
@@ -1105,10 +1172,10 @@
         <v>98.7</v>
       </c>
       <c r="AC4" t="n">
-        <v>-0.5</v>
+        <v>-0.6</v>
       </c>
       <c r="AD4" t="n">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="AE4" t="n">
         <v>14</v>
@@ -1132,7 +1199,7 @@
         <v>10</v>
       </c>
       <c r="AL4" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AM4" t="n">
         <v>10</v>
@@ -1165,7 +1232,7 @@
         <v>11</v>
       </c>
       <c r="AW4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AX4" t="n">
         <v>28</v>
@@ -1183,7 +1250,7 @@
         <v>20</v>
       </c>
       <c r="BC4" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BD4" t="n">
         <v>10</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>4-13-2013-14</t>
+          <t>2014-04-13</t>
         </is>
       </c>
     </row>
@@ -1290,7 +1357,7 @@
         <v>-0.3</v>
       </c>
       <c r="AD5" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AE5" t="n">
         <v>16</v>
@@ -1302,7 +1369,7 @@
         <v>16</v>
       </c>
       <c r="AH5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AI5" t="n">
         <v>25</v>
@@ -1320,7 +1387,7 @@
         <v>27</v>
       </c>
       <c r="AN5" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AO5" t="n">
         <v>14</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>4-13-2013-14</t>
+          <t>2014-04-13</t>
         </is>
       </c>
     </row>
@@ -1394,25 +1461,25 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E6" t="n">
         <v>47</v>
       </c>
       <c r="F6" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G6" t="n">
-        <v>0.588</v>
+        <v>0.595</v>
       </c>
       <c r="H6" t="n">
         <v>48.6</v>
       </c>
       <c r="I6" t="n">
-        <v>34.6</v>
+        <v>34.7</v>
       </c>
       <c r="J6" t="n">
-        <v>80.2</v>
+        <v>80.3</v>
       </c>
       <c r="K6" t="n">
         <v>0.432</v>
@@ -1421,16 +1488,16 @@
         <v>6.2</v>
       </c>
       <c r="M6" t="n">
-        <v>17.8</v>
+        <v>17.7</v>
       </c>
       <c r="N6" t="n">
-        <v>0.348</v>
+        <v>0.349</v>
       </c>
       <c r="O6" t="n">
         <v>18.1</v>
       </c>
       <c r="P6" t="n">
-        <v>23.3</v>
+        <v>23.2</v>
       </c>
       <c r="Q6" t="n">
         <v>0.78</v>
@@ -1442,19 +1509,19 @@
         <v>32.7</v>
       </c>
       <c r="T6" t="n">
-        <v>44.3</v>
+        <v>44.2</v>
       </c>
       <c r="U6" t="n">
-        <v>22.7</v>
+        <v>22.6</v>
       </c>
       <c r="V6" t="n">
         <v>15</v>
       </c>
       <c r="W6" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="X6" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="Y6" t="n">
         <v>6</v>
@@ -1469,19 +1536,19 @@
         <v>93.59999999999999</v>
       </c>
       <c r="AC6" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AD6" t="n">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="AE6" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF6" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AG6" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH6" t="n">
         <v>5</v>
@@ -1541,7 +1608,7 @@
         <v>4</v>
       </c>
       <c r="BA6" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BB6" t="n">
         <v>30</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>4-13-2013-14</t>
+          <t>2014-04-13</t>
         </is>
       </c>
     </row>
@@ -1729,7 +1796,7 @@
         <v>22</v>
       </c>
       <c r="BC7" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BD7" t="n">
         <v>10</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>4-13-2013-14</t>
+          <t>2014-04-13</t>
         </is>
       </c>
     </row>
@@ -1893,7 +1960,7 @@
         <v>3</v>
       </c>
       <c r="AW8" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AX8" t="n">
         <v>21</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>4-13-2013-14</t>
+          <t>2014-04-13</t>
         </is>
       </c>
     </row>
@@ -2018,7 +2085,7 @@
         <v>-2</v>
       </c>
       <c r="AD9" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AE9" t="n">
         <v>19</v>
@@ -2039,7 +2106,7 @@
         <v>5</v>
       </c>
       <c r="AK9" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AL9" t="n">
         <v>11</v>
@@ -2060,7 +2127,7 @@
         <v>27</v>
       </c>
       <c r="AR9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AS9" t="n">
         <v>7</v>
@@ -2084,7 +2151,7 @@
         <v>26</v>
       </c>
       <c r="AZ9" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="BA9" t="n">
         <v>7</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>4-13-2013-14</t>
+          <t>2014-04-13</t>
         </is>
       </c>
     </row>
@@ -2122,25 +2189,25 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E10" t="n">
         <v>29</v>
       </c>
       <c r="F10" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G10" t="n">
-        <v>0.358</v>
+        <v>0.363</v>
       </c>
       <c r="H10" t="n">
-        <v>48.2</v>
+        <v>48.3</v>
       </c>
       <c r="I10" t="n">
         <v>38.8</v>
       </c>
       <c r="J10" t="n">
-        <v>86.90000000000001</v>
+        <v>87</v>
       </c>
       <c r="K10" t="n">
         <v>0.446</v>
@@ -2152,25 +2219,25 @@
         <v>19.3</v>
       </c>
       <c r="N10" t="n">
-        <v>0.32</v>
+        <v>0.321</v>
       </c>
       <c r="O10" t="n">
-        <v>17.2</v>
+        <v>17.1</v>
       </c>
       <c r="P10" t="n">
-        <v>25.7</v>
+        <v>25.4</v>
       </c>
       <c r="Q10" t="n">
         <v>0.671</v>
       </c>
       <c r="R10" t="n">
-        <v>14.6</v>
+        <v>14.5</v>
       </c>
       <c r="S10" t="n">
-        <v>30.9</v>
+        <v>30.8</v>
       </c>
       <c r="T10" t="n">
-        <v>45.4</v>
+        <v>45.3</v>
       </c>
       <c r="U10" t="n">
         <v>20.9</v>
@@ -2182,25 +2249,25 @@
         <v>8.4</v>
       </c>
       <c r="X10" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="Y10" t="n">
         <v>4.9</v>
       </c>
       <c r="Z10" t="n">
-        <v>20.2</v>
+        <v>20.1</v>
       </c>
       <c r="AA10" t="n">
-        <v>20.7</v>
+        <v>20.5</v>
       </c>
       <c r="AB10" t="n">
         <v>100.9</v>
       </c>
       <c r="AC10" t="n">
-        <v>-3.7</v>
+        <v>-3.6</v>
       </c>
       <c r="AD10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE10" t="n">
         <v>23</v>
@@ -2233,7 +2300,7 @@
         <v>29</v>
       </c>
       <c r="AO10" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AP10" t="n">
         <v>6</v>
@@ -2248,7 +2315,7 @@
         <v>21</v>
       </c>
       <c r="AT10" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AU10" t="n">
         <v>24</v>
@@ -2263,13 +2330,13 @@
         <v>13</v>
       </c>
       <c r="AY10" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AZ10" t="n">
         <v>12</v>
       </c>
       <c r="BA10" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="BB10" t="n">
         <v>15</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>4-13-2013-14</t>
+          <t>2014-04-13</t>
         </is>
       </c>
     </row>
@@ -2304,40 +2371,40 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E11" t="n">
         <v>49</v>
       </c>
       <c r="F11" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G11" t="n">
-        <v>0.613</v>
+        <v>0.62</v>
       </c>
       <c r="H11" t="n">
-        <v>48.4</v>
+        <v>48.3</v>
       </c>
       <c r="I11" t="n">
-        <v>39.3</v>
+        <v>39.2</v>
       </c>
       <c r="J11" t="n">
-        <v>85.2</v>
+        <v>85.09999999999999</v>
       </c>
       <c r="K11" t="n">
         <v>0.461</v>
       </c>
       <c r="L11" t="n">
-        <v>9.4</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="M11" t="n">
-        <v>24.7</v>
+        <v>24.6</v>
       </c>
       <c r="N11" t="n">
-        <v>0.38</v>
+        <v>0.378</v>
       </c>
       <c r="O11" t="n">
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
       <c r="P11" t="n">
         <v>21</v>
@@ -2346,13 +2413,13 @@
         <v>0.755</v>
       </c>
       <c r="R11" t="n">
-        <v>10.8</v>
+        <v>10.9</v>
       </c>
       <c r="S11" t="n">
         <v>34.4</v>
       </c>
       <c r="T11" t="n">
-        <v>45.2</v>
+        <v>45.3</v>
       </c>
       <c r="U11" t="n">
         <v>23.2</v>
@@ -2364,25 +2431,25 @@
         <v>7.7</v>
       </c>
       <c r="X11" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="Y11" t="n">
         <v>4.2</v>
       </c>
       <c r="Z11" t="n">
-        <v>21.7</v>
+        <v>21.6</v>
       </c>
       <c r="AA11" t="n">
         <v>19.3</v>
       </c>
       <c r="AB11" t="n">
-        <v>103.8</v>
+        <v>103.6</v>
       </c>
       <c r="AC11" t="n">
         <v>4.8</v>
       </c>
       <c r="AD11" t="n">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="AE11" t="n">
         <v>8</v>
@@ -2394,25 +2461,25 @@
         <v>8</v>
       </c>
       <c r="AH11" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AI11" t="n">
         <v>3</v>
       </c>
       <c r="AJ11" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AK11" t="n">
         <v>9</v>
       </c>
       <c r="AL11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AM11" t="n">
         <v>7</v>
       </c>
       <c r="AN11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AO11" t="n">
         <v>26</v>
@@ -2430,7 +2497,7 @@
         <v>2</v>
       </c>
       <c r="AT11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AU11" t="n">
         <v>7</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>4-13-2013-14</t>
+          <t>2014-04-13</t>
         </is>
       </c>
     </row>
@@ -2564,7 +2631,7 @@
         <v>4.7</v>
       </c>
       <c r="AD12" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AE12" t="n">
         <v>6</v>
@@ -2576,7 +2643,7 @@
         <v>6</v>
       </c>
       <c r="AH12" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AI12" t="n">
         <v>14</v>
@@ -2609,7 +2676,7 @@
         <v>15</v>
       </c>
       <c r="AS12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AT12" t="n">
         <v>4</v>
@@ -2621,7 +2688,7 @@
         <v>29</v>
       </c>
       <c r="AW12" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AX12" t="n">
         <v>3</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>4-13-2013-14</t>
+          <t>2014-04-13</t>
         </is>
       </c>
     </row>
@@ -2668,40 +2735,40 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E13" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F13" t="n">
         <v>26</v>
       </c>
       <c r="G13" t="n">
-        <v>0.679</v>
+        <v>0.675</v>
       </c>
       <c r="H13" t="n">
-        <v>48.2</v>
+        <v>48.3</v>
       </c>
       <c r="I13" t="n">
         <v>35.9</v>
       </c>
       <c r="J13" t="n">
-        <v>80.09999999999999</v>
+        <v>80.2</v>
       </c>
       <c r="K13" t="n">
         <v>0.448</v>
       </c>
       <c r="L13" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="M13" t="n">
-        <v>18.8</v>
+        <v>18.7</v>
       </c>
       <c r="N13" t="n">
-        <v>0.355</v>
+        <v>0.354</v>
       </c>
       <c r="O13" t="n">
-        <v>18.2</v>
+        <v>18.3</v>
       </c>
       <c r="P13" t="n">
         <v>23.4</v>
@@ -2719,13 +2786,13 @@
         <v>44.6</v>
       </c>
       <c r="U13" t="n">
-        <v>20.1</v>
+        <v>20</v>
       </c>
       <c r="V13" t="n">
-        <v>15.1</v>
+        <v>15</v>
       </c>
       <c r="W13" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="X13" t="n">
         <v>5.5</v>
@@ -2740,13 +2807,13 @@
         <v>21.9</v>
       </c>
       <c r="AB13" t="n">
-        <v>96.7</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="AC13" t="n">
         <v>4.3</v>
       </c>
       <c r="AD13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE13" t="n">
         <v>4</v>
@@ -2767,22 +2834,22 @@
         <v>28</v>
       </c>
       <c r="AK13" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AL13" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AM13" t="n">
         <v>25</v>
       </c>
       <c r="AN13" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AO13" t="n">
         <v>11</v>
       </c>
       <c r="AP13" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AQ13" t="n">
         <v>8</v>
@@ -2818,7 +2885,7 @@
         <v>6</v>
       </c>
       <c r="BB13" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BC13" t="n">
         <v>7</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>4-13-2013-14</t>
+          <t>2014-04-13</t>
         </is>
       </c>
     </row>
@@ -2928,7 +2995,7 @@
         <v>7.1</v>
       </c>
       <c r="AD14" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AE14" t="n">
         <v>3</v>
@@ -2958,7 +3025,7 @@
         <v>8</v>
       </c>
       <c r="AN14" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AO14" t="n">
         <v>3</v>
@@ -2973,7 +3040,7 @@
         <v>21</v>
       </c>
       <c r="AS14" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AT14" t="n">
         <v>14</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>4-13-2013-14</t>
+          <t>2014-04-13</t>
         </is>
       </c>
     </row>
@@ -3032,25 +3099,25 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E15" t="n">
         <v>25</v>
       </c>
       <c r="F15" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G15" t="n">
-        <v>0.313</v>
+        <v>0.316</v>
       </c>
       <c r="H15" t="n">
         <v>48.1</v>
       </c>
       <c r="I15" t="n">
-        <v>38.1</v>
+        <v>38.2</v>
       </c>
       <c r="J15" t="n">
-        <v>85.09999999999999</v>
+        <v>85.2</v>
       </c>
       <c r="K15" t="n">
         <v>0.448</v>
@@ -3059,28 +3126,28 @@
         <v>9.4</v>
       </c>
       <c r="M15" t="n">
-        <v>24.8</v>
+        <v>24.7</v>
       </c>
       <c r="N15" t="n">
         <v>0.38</v>
       </c>
       <c r="O15" t="n">
-        <v>17</v>
+        <v>17.1</v>
       </c>
       <c r="P15" t="n">
-        <v>22.5</v>
+        <v>22.6</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.757</v>
+        <v>0.756</v>
       </c>
       <c r="R15" t="n">
-        <v>9.1</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="S15" t="n">
         <v>31.9</v>
       </c>
       <c r="T15" t="n">
-        <v>41</v>
+        <v>41.1</v>
       </c>
       <c r="U15" t="n">
         <v>24.3</v>
@@ -3089,7 +3156,7 @@
         <v>15.2</v>
       </c>
       <c r="W15" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="X15" t="n">
         <v>5.5</v>
@@ -3098,19 +3165,19 @@
         <v>4.7</v>
       </c>
       <c r="Z15" t="n">
-        <v>19.9</v>
+        <v>20</v>
       </c>
       <c r="AA15" t="n">
-        <v>19.3</v>
+        <v>19.4</v>
       </c>
       <c r="AB15" t="n">
-        <v>102.6</v>
+        <v>102.8</v>
       </c>
       <c r="AC15" t="n">
-        <v>-6.8</v>
+        <v>-6.7</v>
       </c>
       <c r="AD15" t="n">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="AE15" t="n">
         <v>25</v>
@@ -3128,13 +3195,13 @@
         <v>13</v>
       </c>
       <c r="AJ15" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AK15" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AL15" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AM15" t="n">
         <v>6</v>
@@ -3143,7 +3210,7 @@
         <v>3</v>
       </c>
       <c r="AO15" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AP15" t="n">
         <v>19</v>
@@ -3158,13 +3225,13 @@
         <v>15</v>
       </c>
       <c r="AT15" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AU15" t="n">
         <v>4</v>
       </c>
       <c r="AV15" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AW15" t="n">
         <v>20</v>
@@ -3173,13 +3240,13 @@
         <v>6</v>
       </c>
       <c r="AY15" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AZ15" t="n">
         <v>10</v>
       </c>
       <c r="BA15" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BB15" t="n">
         <v>11</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>4-13-2013-14</t>
+          <t>2014-04-13</t>
         </is>
       </c>
     </row>
@@ -3214,25 +3281,25 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E16" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F16" t="n">
         <v>32</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6</v>
+        <v>0.595</v>
       </c>
       <c r="H16" t="n">
         <v>48.3</v>
       </c>
       <c r="I16" t="n">
-        <v>38</v>
+        <v>37.9</v>
       </c>
       <c r="J16" t="n">
-        <v>82</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="K16" t="n">
         <v>0.463</v>
@@ -3244,28 +3311,28 @@
         <v>13.9</v>
       </c>
       <c r="N16" t="n">
-        <v>0.354</v>
+        <v>0.352</v>
       </c>
       <c r="O16" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="P16" t="n">
-        <v>20.3</v>
+        <v>20.4</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.744</v>
+        <v>0.743</v>
       </c>
       <c r="R16" t="n">
-        <v>11.5</v>
+        <v>11.4</v>
       </c>
       <c r="S16" t="n">
         <v>30.8</v>
       </c>
       <c r="T16" t="n">
-        <v>42.3</v>
+        <v>42.2</v>
       </c>
       <c r="U16" t="n">
-        <v>21.8</v>
+        <v>21.7</v>
       </c>
       <c r="V16" t="n">
         <v>13.6</v>
@@ -3274,25 +3341,25 @@
         <v>7.7</v>
       </c>
       <c r="X16" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="Y16" t="n">
         <v>5</v>
       </c>
       <c r="Z16" t="n">
-        <v>19.2</v>
+        <v>19.3</v>
       </c>
       <c r="AA16" t="n">
         <v>18.9</v>
       </c>
       <c r="AB16" t="n">
-        <v>96</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="AC16" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AD16" t="n">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="AE16" t="n">
         <v>10</v>
@@ -3310,10 +3377,10 @@
         <v>15</v>
       </c>
       <c r="AJ16" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AK16" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AL16" t="n">
         <v>30</v>
@@ -3322,7 +3389,7 @@
         <v>30</v>
       </c>
       <c r="AN16" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AO16" t="n">
         <v>30</v>
@@ -3340,10 +3407,10 @@
         <v>22</v>
       </c>
       <c r="AT16" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AU16" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AV16" t="n">
         <v>4</v>
@@ -3352,13 +3419,13 @@
         <v>13</v>
       </c>
       <c r="AX16" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AY16" t="n">
         <v>19</v>
       </c>
       <c r="AZ16" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BA16" t="n">
         <v>29</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>4-13-2013-14</t>
+          <t>2014-04-13</t>
         </is>
       </c>
     </row>
@@ -3474,19 +3541,19 @@
         <v>5.3</v>
       </c>
       <c r="AD17" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AE17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AF17" t="n">
         <v>4</v>
       </c>
       <c r="AG17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AH17" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AI17" t="n">
         <v>11</v>
@@ -3504,7 +3571,7 @@
         <v>15</v>
       </c>
       <c r="AN17" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AO17" t="n">
         <v>15</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>4-13-2013-14</t>
+          <t>2014-04-13</t>
         </is>
       </c>
     </row>
@@ -3656,7 +3723,7 @@
         <v>-8.199999999999999</v>
       </c>
       <c r="AD18" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AE18" t="n">
         <v>30</v>
@@ -3668,7 +3735,7 @@
         <v>30</v>
       </c>
       <c r="AH18" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AI18" t="n">
         <v>26</v>
@@ -3692,7 +3759,7 @@
         <v>21</v>
       </c>
       <c r="AP18" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AQ18" t="n">
         <v>21</v>
@@ -3725,7 +3792,7 @@
         <v>18</v>
       </c>
       <c r="BA18" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BB18" t="n">
         <v>28</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>4-13-2013-14</t>
+          <t>2014-04-13</t>
         </is>
       </c>
     </row>
@@ -3760,22 +3827,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E19" t="n">
         <v>40</v>
       </c>
       <c r="F19" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G19" t="n">
-        <v>0.5</v>
+        <v>0.506</v>
       </c>
       <c r="H19" t="n">
         <v>48.3</v>
       </c>
       <c r="I19" t="n">
-        <v>38.8</v>
+        <v>38.9</v>
       </c>
       <c r="J19" t="n">
         <v>87.5</v>
@@ -3796,34 +3863,34 @@
         <v>21.5</v>
       </c>
       <c r="P19" t="n">
-        <v>27.7</v>
+        <v>27.6</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.778</v>
+        <v>0.777</v>
       </c>
       <c r="R19" t="n">
         <v>12.5</v>
       </c>
       <c r="S19" t="n">
-        <v>32.2</v>
+        <v>32.3</v>
       </c>
       <c r="T19" t="n">
         <v>44.8</v>
       </c>
       <c r="U19" t="n">
-        <v>23.8</v>
+        <v>23.7</v>
       </c>
       <c r="V19" t="n">
-        <v>13.8</v>
+        <v>13.9</v>
       </c>
       <c r="W19" t="n">
-        <v>8.699999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="X19" t="n">
         <v>3.6</v>
       </c>
       <c r="Y19" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="Z19" t="n">
         <v>18.3</v>
@@ -3835,28 +3902,28 @@
         <v>106.5</v>
       </c>
       <c r="AC19" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="AD19" t="n">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="AE19" t="n">
         <v>17</v>
       </c>
       <c r="AF19" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AG19" t="n">
         <v>17</v>
       </c>
       <c r="AH19" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AI19" t="n">
         <v>7</v>
       </c>
       <c r="AJ19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK19" t="n">
         <v>23</v>
@@ -3883,16 +3950,16 @@
         <v>2</v>
       </c>
       <c r="AS19" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AT19" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AU19" t="n">
         <v>5</v>
       </c>
       <c r="AV19" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AW19" t="n">
         <v>3</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>4-13-2013-14</t>
+          <t>2014-04-13</t>
         </is>
       </c>
     </row>
@@ -4020,7 +4087,7 @@
         <v>-3</v>
       </c>
       <c r="AD20" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AE20" t="n">
         <v>21</v>
@@ -4032,7 +4099,7 @@
         <v>21</v>
       </c>
       <c r="AH20" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI20" t="n">
         <v>17</v>
@@ -4074,7 +4141,7 @@
         <v>19</v>
       </c>
       <c r="AV20" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AW20" t="n">
         <v>12</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>4-13-2013-14</t>
+          <t>2014-04-13</t>
         </is>
       </c>
     </row>
@@ -4124,16 +4191,16 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E21" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F21" t="n">
         <v>45</v>
       </c>
       <c r="G21" t="n">
-        <v>0.438</v>
+        <v>0.43</v>
       </c>
       <c r="H21" t="n">
         <v>48.4</v>
@@ -4163,16 +4230,16 @@
         <v>20.1</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.76</v>
+        <v>0.759</v>
       </c>
       <c r="R21" t="n">
-        <v>10.6</v>
+        <v>10.7</v>
       </c>
       <c r="S21" t="n">
         <v>29.8</v>
       </c>
       <c r="T21" t="n">
-        <v>40.4</v>
+        <v>40.5</v>
       </c>
       <c r="U21" t="n">
         <v>20.2</v>
@@ -4184,13 +4251,13 @@
         <v>7.6</v>
       </c>
       <c r="X21" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="Y21" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Z21" t="n">
-        <v>22.1</v>
+        <v>22</v>
       </c>
       <c r="AA21" t="n">
         <v>19.6</v>
@@ -4199,10 +4266,10 @@
         <v>98.5</v>
       </c>
       <c r="AC21" t="n">
-        <v>-1</v>
+        <v>-1.1</v>
       </c>
       <c r="AD21" t="n">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="AE21" t="n">
         <v>20</v>
@@ -4241,10 +4308,10 @@
         <v>30</v>
       </c>
       <c r="AQ21" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AR21" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AS21" t="n">
         <v>27</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>4-13-2013-14</t>
+          <t>2014-04-13</t>
         </is>
       </c>
     </row>
@@ -4306,16 +4373,16 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E22" t="n">
         <v>58</v>
       </c>
       <c r="F22" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G22" t="n">
-        <v>0.725</v>
+        <v>0.734</v>
       </c>
       <c r="H22" t="n">
         <v>48.3</v>
@@ -4327,16 +4394,16 @@
         <v>82.7</v>
       </c>
       <c r="K22" t="n">
-        <v>0.472</v>
+        <v>0.473</v>
       </c>
       <c r="L22" t="n">
         <v>8.1</v>
       </c>
       <c r="M22" t="n">
-        <v>22.3</v>
+        <v>22.2</v>
       </c>
       <c r="N22" t="n">
-        <v>0.364</v>
+        <v>0.366</v>
       </c>
       <c r="O22" t="n">
         <v>20.1</v>
@@ -4345,28 +4412,28 @@
         <v>24.9</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.806</v>
+        <v>0.805</v>
       </c>
       <c r="R22" t="n">
         <v>10.7</v>
       </c>
       <c r="S22" t="n">
-        <v>34.1</v>
+        <v>34.2</v>
       </c>
       <c r="T22" t="n">
-        <v>44.7</v>
+        <v>44.9</v>
       </c>
       <c r="U22" t="n">
         <v>21.9</v>
       </c>
       <c r="V22" t="n">
-        <v>15.3</v>
+        <v>15.4</v>
       </c>
       <c r="W22" t="n">
-        <v>8.300000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="X22" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="Y22" t="n">
         <v>3.6</v>
@@ -4378,13 +4445,13 @@
         <v>20.3</v>
       </c>
       <c r="AB22" t="n">
-        <v>106.3</v>
+        <v>106.4</v>
       </c>
       <c r="AC22" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="AD22" t="n">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="AE22" t="n">
         <v>2</v>
@@ -4396,10 +4463,10 @@
         <v>2</v>
       </c>
       <c r="AH22" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AI22" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AJ22" t="n">
         <v>15</v>
@@ -4414,7 +4481,7 @@
         <v>14</v>
       </c>
       <c r="AN22" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AO22" t="n">
         <v>5</v>
@@ -4429,19 +4496,19 @@
         <v>19</v>
       </c>
       <c r="AS22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AT22" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AU22" t="n">
         <v>13</v>
       </c>
       <c r="AV22" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AW22" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AX22" t="n">
         <v>2</v>
@@ -4453,7 +4520,7 @@
         <v>27</v>
       </c>
       <c r="BA22" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BB22" t="n">
         <v>5</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>4-13-2013-14</t>
+          <t>2014-04-13</t>
         </is>
       </c>
     </row>
@@ -4488,16 +4555,16 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E23" t="n">
         <v>23</v>
       </c>
       <c r="F23" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G23" t="n">
-        <v>0.288</v>
+        <v>0.291</v>
       </c>
       <c r="H23" t="n">
         <v>48.7</v>
@@ -4506,7 +4573,7 @@
         <v>36.9</v>
       </c>
       <c r="J23" t="n">
-        <v>82.90000000000001</v>
+        <v>83</v>
       </c>
       <c r="K23" t="n">
         <v>0.445</v>
@@ -4518,37 +4585,37 @@
         <v>19.6</v>
       </c>
       <c r="N23" t="n">
-        <v>0.352</v>
+        <v>0.351</v>
       </c>
       <c r="O23" t="n">
-        <v>15.9</v>
+        <v>16</v>
       </c>
       <c r="P23" t="n">
-        <v>20.9</v>
+        <v>21</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.762</v>
+        <v>0.763</v>
       </c>
       <c r="R23" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="S23" t="n">
-        <v>32.4</v>
+        <v>32.6</v>
       </c>
       <c r="T23" t="n">
-        <v>42.2</v>
+        <v>42.3</v>
       </c>
       <c r="U23" t="n">
         <v>21.1</v>
       </c>
       <c r="V23" t="n">
-        <v>14.9</v>
+        <v>14.8</v>
       </c>
       <c r="W23" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="X23" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="Y23" t="n">
         <v>5.5</v>
@@ -4560,19 +4627,19 @@
         <v>18.3</v>
       </c>
       <c r="AB23" t="n">
-        <v>96.7</v>
+        <v>96.8</v>
       </c>
       <c r="AC23" t="n">
         <v>-5.2</v>
       </c>
       <c r="AD23" t="n">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="AE23" t="n">
         <v>28</v>
       </c>
       <c r="AF23" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AG23" t="n">
         <v>28</v>
@@ -4611,10 +4678,10 @@
         <v>24</v>
       </c>
       <c r="AS23" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AT23" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AU23" t="n">
         <v>21</v>
@@ -4623,10 +4690,10 @@
         <v>17</v>
       </c>
       <c r="AW23" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AX23" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AY23" t="n">
         <v>22</v>
@@ -4638,7 +4705,7 @@
         <v>30</v>
       </c>
       <c r="BB23" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BC23" t="n">
         <v>26</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>4-13-2013-14</t>
+          <t>2014-04-13</t>
         </is>
       </c>
     </row>
@@ -4748,7 +4815,7 @@
         <v>-10.9</v>
       </c>
       <c r="AD24" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AE24" t="n">
         <v>29</v>
@@ -4799,7 +4866,7 @@
         <v>15</v>
       </c>
       <c r="AU24" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AV24" t="n">
         <v>30</v>
@@ -4817,7 +4884,7 @@
         <v>25</v>
       </c>
       <c r="BA24" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BB24" t="n">
         <v>19</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>4-13-2013-14</t>
+          <t>2014-04-13</t>
         </is>
       </c>
     </row>
@@ -4930,16 +4997,16 @@
         <v>2.7</v>
       </c>
       <c r="AD25" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AE25" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF25" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AG25" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH25" t="n">
         <v>24</v>
@@ -4951,10 +5018,10 @@
         <v>12</v>
       </c>
       <c r="AK25" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AL25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AM25" t="n">
         <v>4</v>
@@ -4969,7 +5036,7 @@
         <v>9</v>
       </c>
       <c r="AQ25" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AR25" t="n">
         <v>12</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>4-13-2013-14</t>
+          <t>2014-04-13</t>
         </is>
       </c>
     </row>
@@ -5034,52 +5101,52 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E26" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F26" t="n">
         <v>28</v>
       </c>
       <c r="G26" t="n">
-        <v>0.654</v>
+        <v>0.65</v>
       </c>
       <c r="H26" t="n">
         <v>48.4</v>
       </c>
       <c r="I26" t="n">
-        <v>39.1</v>
+        <v>39</v>
       </c>
       <c r="J26" t="n">
         <v>86.8</v>
       </c>
       <c r="K26" t="n">
-        <v>0.45</v>
+        <v>0.449</v>
       </c>
       <c r="L26" t="n">
         <v>9.4</v>
       </c>
       <c r="M26" t="n">
-        <v>25.2</v>
+        <v>25.3</v>
       </c>
       <c r="N26" t="n">
-        <v>0.372</v>
+        <v>0.371</v>
       </c>
       <c r="O26" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="P26" t="n">
-        <v>23.5</v>
+        <v>23.4</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.8159999999999999</v>
+        <v>0.8169999999999999</v>
       </c>
       <c r="R26" t="n">
-        <v>12.3</v>
+        <v>12.4</v>
       </c>
       <c r="S26" t="n">
-        <v>33.9</v>
+        <v>33.8</v>
       </c>
       <c r="T26" t="n">
         <v>46.2</v>
@@ -5097,25 +5164,25 @@
         <v>4.8</v>
       </c>
       <c r="Y26" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="Z26" t="n">
-        <v>19.2</v>
+        <v>19.3</v>
       </c>
       <c r="AA26" t="n">
-        <v>20.7</v>
+        <v>20.6</v>
       </c>
       <c r="AB26" t="n">
-        <v>106.7</v>
+        <v>106.6</v>
       </c>
       <c r="AC26" t="n">
         <v>4</v>
       </c>
       <c r="AD26" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE26" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AF26" t="n">
         <v>7</v>
@@ -5127,7 +5194,7 @@
         <v>13</v>
       </c>
       <c r="AI26" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AJ26" t="n">
         <v>4</v>
@@ -5136,7 +5203,7 @@
         <v>14</v>
       </c>
       <c r="AL26" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AM26" t="n">
         <v>3</v>
@@ -5148,13 +5215,13 @@
         <v>7</v>
       </c>
       <c r="AP26" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AQ26" t="n">
         <v>1</v>
       </c>
       <c r="AR26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AS26" t="n">
         <v>6</v>
@@ -5178,7 +5245,7 @@
         <v>6</v>
       </c>
       <c r="AZ26" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BA26" t="n">
         <v>12</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>4-13-2013-14</t>
+          <t>2014-04-13</t>
         </is>
       </c>
     </row>
@@ -5216,16 +5283,16 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E27" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F27" t="n">
         <v>53</v>
       </c>
       <c r="G27" t="n">
-        <v>0.346</v>
+        <v>0.338</v>
       </c>
       <c r="H27" t="n">
         <v>48.4</v>
@@ -5252,28 +5319,28 @@
         <v>20.7</v>
       </c>
       <c r="P27" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.76</v>
+        <v>0.761</v>
       </c>
       <c r="R27" t="n">
         <v>12.1</v>
       </c>
       <c r="S27" t="n">
-        <v>32.3</v>
+        <v>32.2</v>
       </c>
       <c r="T27" t="n">
         <v>44.3</v>
       </c>
       <c r="U27" t="n">
-        <v>18.9</v>
+        <v>18.8</v>
       </c>
       <c r="V27" t="n">
         <v>15.2</v>
       </c>
       <c r="W27" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="X27" t="n">
         <v>3.9</v>
@@ -5291,10 +5358,10 @@
         <v>100.5</v>
       </c>
       <c r="AC27" t="n">
-        <v>-2.9</v>
+        <v>-3</v>
       </c>
       <c r="AD27" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE27" t="n">
         <v>24</v>
@@ -5306,7 +5373,7 @@
         <v>24</v>
       </c>
       <c r="AH27" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AI27" t="n">
         <v>22</v>
@@ -5315,7 +5382,7 @@
         <v>17</v>
       </c>
       <c r="AK27" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AL27" t="n">
         <v>28</v>
@@ -5339,7 +5406,7 @@
         <v>5</v>
       </c>
       <c r="AS27" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AT27" t="n">
         <v>9</v>
@@ -5348,7 +5415,7 @@
         <v>30</v>
       </c>
       <c r="AV27" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AW27" t="n">
         <v>22</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>4-13-2013-14</t>
+          <t>2014-04-13</t>
         </is>
       </c>
     </row>
@@ -5476,7 +5543,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="AD28" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AE28" t="n">
         <v>1</v>
@@ -5515,7 +5582,7 @@
         <v>29</v>
       </c>
       <c r="AQ28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AR28" t="n">
         <v>26</v>
@@ -5539,13 +5606,13 @@
         <v>8</v>
       </c>
       <c r="AY28" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AZ28" t="n">
         <v>1</v>
       </c>
       <c r="BA28" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BB28" t="n">
         <v>6</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>4-13-2013-14</t>
+          <t>2014-04-13</t>
         </is>
       </c>
     </row>
@@ -5580,22 +5647,22 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E29" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F29" t="n">
         <v>33</v>
       </c>
       <c r="G29" t="n">
-        <v>0.588</v>
+        <v>0.582</v>
       </c>
       <c r="H29" t="n">
         <v>48.7</v>
       </c>
       <c r="I29" t="n">
-        <v>36.5</v>
+        <v>36.4</v>
       </c>
       <c r="J29" t="n">
         <v>82</v>
@@ -5613,13 +5680,13 @@
         <v>0.372</v>
       </c>
       <c r="O29" t="n">
-        <v>19.7</v>
+        <v>19.6</v>
       </c>
       <c r="P29" t="n">
-        <v>25.1</v>
+        <v>25</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.784</v>
+        <v>0.783</v>
       </c>
       <c r="R29" t="n">
         <v>11.4</v>
@@ -5631,58 +5698,58 @@
         <v>42.4</v>
       </c>
       <c r="U29" t="n">
-        <v>21.2</v>
+        <v>21.1</v>
       </c>
       <c r="V29" t="n">
-        <v>14</v>
+        <v>14.1</v>
       </c>
       <c r="W29" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="X29" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="Y29" t="n">
         <v>4.3</v>
       </c>
       <c r="Z29" t="n">
-        <v>23</v>
+        <v>22.8</v>
       </c>
       <c r="AA29" t="n">
         <v>22.1</v>
       </c>
       <c r="AB29" t="n">
-        <v>101.3</v>
+        <v>101.1</v>
       </c>
       <c r="AC29" t="n">
         <v>3.2</v>
       </c>
       <c r="AD29" t="n">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="AE29" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AF29" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AG29" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AH29" t="n">
         <v>2</v>
       </c>
       <c r="AI29" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AJ29" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AK29" t="n">
         <v>22</v>
       </c>
       <c r="AL29" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AM29" t="n">
         <v>11</v>
@@ -5697,7 +5764,7 @@
         <v>7</v>
       </c>
       <c r="AQ29" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AR29" t="n">
         <v>14</v>
@@ -5718,13 +5785,13 @@
         <v>25</v>
       </c>
       <c r="AX29" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AY29" t="n">
         <v>11</v>
       </c>
       <c r="AZ29" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BA29" t="n">
         <v>5</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>4-13-2013-14</t>
+          <t>2014-04-13</t>
         </is>
       </c>
     </row>
@@ -5840,7 +5907,7 @@
         <v>-7.2</v>
       </c>
       <c r="AD30" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AE30" t="n">
         <v>27</v>
@@ -5864,7 +5931,7 @@
         <v>25</v>
       </c>
       <c r="AL30" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AM30" t="n">
         <v>23</v>
@@ -5888,7 +5955,7 @@
         <v>26</v>
       </c>
       <c r="AT30" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AU30" t="n">
         <v>27</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>4-13-2013-14</t>
+          <t>2014-04-13</t>
         </is>
       </c>
     </row>
@@ -6022,7 +6089,7 @@
         <v>0.8</v>
       </c>
       <c r="AD31" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AE31" t="n">
         <v>15</v>
@@ -6052,7 +6119,7 @@
         <v>19</v>
       </c>
       <c r="AN31" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AO31" t="n">
         <v>28</v>
@@ -6082,7 +6149,7 @@
         <v>11</v>
       </c>
       <c r="AX31" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AY31" t="n">
         <v>7</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>4-13-2013-14</t>
+          <t>2014-04-13</t>
         </is>
       </c>
     </row>
